--- a/DataAir.xlsx
+++ b/DataAir.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhale\MATLAB Drive\MGTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C8E25-5C3C-42DA-8CA0-C7567C45D2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764B2083-CB5B-4B88-8AD4-489C30AF9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="1395" windowWidth="28800" windowHeight="9735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
     <sheet name="Airlines" sheetId="2" r:id="rId2"/>
-    <sheet name="AirportsECAC" sheetId="3" r:id="rId3"/>
-    <sheet name="ECAC_List" sheetId="4" r:id="rId4"/>
+    <sheet name="ECAC_List" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
   <si>
     <t>aircraft</t>
   </si>
@@ -409,639 +408,6 @@
   </si>
   <si>
     <t>WZZ</t>
-  </si>
-  <si>
-    <t>departure_airport</t>
-  </si>
-  <si>
-    <t>EBBR</t>
-  </si>
-  <si>
-    <t>EDDF</t>
-  </si>
-  <si>
-    <t>EDDH</t>
-  </si>
-  <si>
-    <t>EDDK</t>
-  </si>
-  <si>
-    <t>EDDL</t>
-  </si>
-  <si>
-    <t>EDDM</t>
-  </si>
-  <si>
-    <t>EDDS</t>
-  </si>
-  <si>
-    <t>EDDT</t>
-  </si>
-  <si>
-    <t>EFHK</t>
-  </si>
-  <si>
-    <t>EGBB</t>
-  </si>
-  <si>
-    <t>EGCC</t>
-  </si>
-  <si>
-    <t>EGGD</t>
-  </si>
-  <si>
-    <t>EGGW</t>
-  </si>
-  <si>
-    <t>EGKK</t>
-  </si>
-  <si>
-    <t>EGLC</t>
-  </si>
-  <si>
-    <t>EGLL</t>
-  </si>
-  <si>
-    <t>EHAM</t>
-  </si>
-  <si>
-    <t>EIDW</t>
-  </si>
-  <si>
-    <t>EKCH</t>
-  </si>
-  <si>
-    <t>ELLX</t>
-  </si>
-  <si>
-    <t>EPKT</t>
-  </si>
-  <si>
-    <t>EPWA</t>
-  </si>
-  <si>
-    <t>EVRA</t>
-  </si>
-  <si>
-    <t>EYVI</t>
-  </si>
-  <si>
-    <t>LATI</t>
-  </si>
-  <si>
-    <t>LBSF</t>
-  </si>
-  <si>
-    <t>LDSP</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>LEBL</t>
-  </si>
-  <si>
-    <t>LEMD</t>
-  </si>
-  <si>
-    <t>LEMG</t>
-  </si>
-  <si>
-    <t>LEVC</t>
-  </si>
-  <si>
-    <t>LEZL</t>
-  </si>
-  <si>
-    <t>LFBD</t>
-  </si>
-  <si>
-    <t>LFBO</t>
-  </si>
-  <si>
-    <t>LFLL</t>
-  </si>
-  <si>
-    <t>LFML</t>
-  </si>
-  <si>
-    <t>LFMN</t>
-  </si>
-  <si>
-    <t>LFPG</t>
-  </si>
-  <si>
-    <t>LFPO</t>
-  </si>
-  <si>
-    <t>LFRS</t>
-  </si>
-  <si>
-    <t>LFSB</t>
-  </si>
-  <si>
-    <t>LGAV</t>
-  </si>
-  <si>
-    <t>LHBP</t>
-  </si>
-  <si>
-    <t>LIBD</t>
-  </si>
-  <si>
-    <t>LIBP</t>
-  </si>
-  <si>
-    <t>LIBR</t>
-  </si>
-  <si>
-    <t>LICA</t>
-  </si>
-  <si>
-    <t>LICB</t>
-  </si>
-  <si>
-    <t>LICC</t>
-  </si>
-  <si>
-    <t>LICJ</t>
-  </si>
-  <si>
-    <t>LICR</t>
-  </si>
-  <si>
-    <t>LIEA</t>
-  </si>
-  <si>
-    <t>LIEE</t>
-  </si>
-  <si>
-    <t>LIEO</t>
-  </si>
-  <si>
-    <t>LIMC</t>
-  </si>
-  <si>
-    <t>LIMF</t>
-  </si>
-  <si>
-    <t>LIMJ</t>
-  </si>
-  <si>
-    <t>LIML</t>
-  </si>
-  <si>
-    <t>LIPE</t>
-  </si>
-  <si>
-    <t>LIPO</t>
-  </si>
-  <si>
-    <t>LIPQ</t>
-  </si>
-  <si>
-    <t>LIPX</t>
-  </si>
-  <si>
-    <t>LIPY</t>
-  </si>
-  <si>
-    <t>LIPZ</t>
-  </si>
-  <si>
-    <t>LIRN</t>
-  </si>
-  <si>
-    <t>LIRP</t>
-  </si>
-  <si>
-    <t>LIRQ</t>
-  </si>
-  <si>
-    <t>LIRZ</t>
-  </si>
-  <si>
-    <t>LKPR</t>
-  </si>
-  <si>
-    <t>LLBG</t>
-  </si>
-  <si>
-    <t>LMML</t>
-  </si>
-  <si>
-    <t>LOWW</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>LRBC</t>
-  </si>
-  <si>
-    <t>LRIA</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>LSGG</t>
-  </si>
-  <si>
-    <t>LSZH</t>
-  </si>
-  <si>
-    <t>LTBA</t>
-  </si>
-  <si>
-    <t>LTFJ</t>
-  </si>
-  <si>
-    <t>LWSK</t>
-  </si>
-  <si>
-    <t>LYBE</t>
-  </si>
-  <si>
-    <t>LYPG</t>
-  </si>
-  <si>
-    <t>UKBB</t>
-  </si>
-  <si>
-    <t>LEAB</t>
-  </si>
-  <si>
-    <t>GCFV</t>
-  </si>
-  <si>
-    <t>GCGM</t>
-  </si>
-  <si>
-    <t>GCHI</t>
-  </si>
-  <si>
-    <t>GCLA</t>
-  </si>
-  <si>
-    <t>GCLP</t>
-  </si>
-  <si>
-    <t>GCRR</t>
-  </si>
-  <si>
-    <t>GCTS</t>
-  </si>
-  <si>
-    <t>GCXO</t>
-  </si>
-  <si>
-    <t>GEML</t>
-  </si>
-  <si>
-    <t>LEAM</t>
-  </si>
-  <si>
-    <t>LEAS</t>
-  </si>
-  <si>
-    <t>LEBA</t>
-  </si>
-  <si>
-    <t>LEBB</t>
-  </si>
-  <si>
-    <t>LEBG</t>
-  </si>
-  <si>
-    <t>LEBZ</t>
-  </si>
-  <si>
-    <t>LECO</t>
-  </si>
-  <si>
-    <t>LECU</t>
-  </si>
-  <si>
-    <t>LEGE</t>
-  </si>
-  <si>
-    <t>LEGR</t>
-  </si>
-  <si>
-    <t>LEHC</t>
-  </si>
-  <si>
-    <t>LEIB</t>
-  </si>
-  <si>
-    <t>LEJR</t>
-  </si>
-  <si>
-    <t>LELL</t>
-  </si>
-  <si>
-    <t>LELN</t>
-  </si>
-  <si>
-    <t>LEMH</t>
-  </si>
-  <si>
-    <t>LEMI</t>
-  </si>
-  <si>
-    <t>LEPA</t>
-  </si>
-  <si>
-    <t>LEPP</t>
-  </si>
-  <si>
-    <t>LERJ</t>
-  </si>
-  <si>
-    <t>LERS</t>
-  </si>
-  <si>
-    <t>LESA</t>
-  </si>
-  <si>
-    <t>LESB</t>
-  </si>
-  <si>
-    <t>LESO</t>
-  </si>
-  <si>
-    <t>LEST</t>
-  </si>
-  <si>
-    <t>LEVD</t>
-  </si>
-  <si>
-    <t>LEVT</t>
-  </si>
-  <si>
-    <t>LEVX</t>
-  </si>
-  <si>
-    <t>LEXJ</t>
-  </si>
-  <si>
-    <t>LEZG</t>
-  </si>
-  <si>
-    <t>LESU</t>
-  </si>
-  <si>
-    <t>LECH</t>
-  </si>
-  <si>
-    <t>LERL</t>
-  </si>
-  <si>
-    <t>LEDA</t>
-  </si>
-  <si>
-    <t>LETL</t>
-  </si>
-  <si>
-    <t>LIMG</t>
-  </si>
-  <si>
-    <t>LIME</t>
-  </si>
-  <si>
-    <t>LIPB</t>
-  </si>
-  <si>
-    <t>LIBC</t>
-  </si>
-  <si>
-    <t>LIMZ</t>
-  </si>
-  <si>
-    <t>LIBF</t>
-  </si>
-  <si>
-    <t>LIRS</t>
-  </si>
-  <si>
-    <t>LICD</t>
-  </si>
-  <si>
-    <t>LIRJ</t>
-  </si>
-  <si>
-    <t>LICG</t>
-  </si>
-  <si>
-    <t>LIMP</t>
-  </si>
-  <si>
-    <t>LIPR</t>
-  </si>
-  <si>
-    <t>LIRA</t>
-  </si>
-  <si>
-    <t>LIRF</t>
-  </si>
-  <si>
-    <t>LIRI</t>
-  </si>
-  <si>
-    <t>LIPH</t>
-  </si>
-  <si>
-    <t>LIBG</t>
-  </si>
-  <si>
-    <t>LICT</t>
-  </si>
-  <si>
-    <t>LIAF</t>
-  </si>
-  <si>
-    <t>LIAP</t>
-  </si>
-  <si>
-    <t>LIAT</t>
-  </si>
-  <si>
-    <t>LIAU</t>
-  </si>
-  <si>
-    <t>LIBA</t>
-  </si>
-  <si>
-    <t>LIBN</t>
-  </si>
-  <si>
-    <t>LIBV</t>
-  </si>
-  <si>
-    <t>LIBX</t>
-  </si>
-  <si>
-    <t>LICP</t>
-  </si>
-  <si>
-    <t>LICZ</t>
-  </si>
-  <si>
-    <t>LIDA</t>
-  </si>
-  <si>
-    <t>LIDB</t>
-  </si>
-  <si>
-    <t>LIDE</t>
-  </si>
-  <si>
-    <t>LIDF</t>
-  </si>
-  <si>
-    <t>LIDG</t>
-  </si>
-  <si>
-    <t>LIDH</t>
-  </si>
-  <si>
-    <t>LIDP</t>
-  </si>
-  <si>
-    <t>LIDR</t>
-  </si>
-  <si>
-    <t>LIDT</t>
-  </si>
-  <si>
-    <t>LIDU</t>
-  </si>
-  <si>
-    <t>LIDV</t>
-  </si>
-  <si>
-    <t>LIED</t>
-  </si>
-  <si>
-    <t>LIER</t>
-  </si>
-  <si>
-    <t>LIET</t>
-  </si>
-  <si>
-    <t>LILE</t>
-  </si>
-  <si>
-    <t>LILG</t>
-  </si>
-  <si>
-    <t>LILH</t>
-  </si>
-  <si>
-    <t>LILN</t>
-  </si>
-  <si>
-    <t>LILR</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>LIMB</t>
-  </si>
-  <si>
-    <t>LIMN</t>
-  </si>
-  <si>
-    <t>LIMS</t>
-  </si>
-  <si>
-    <t>LIMW</t>
-  </si>
-  <si>
-    <t>LIPA</t>
-  </si>
-  <si>
-    <t>LIPC</t>
-  </si>
-  <si>
-    <t>LIPD</t>
-  </si>
-  <si>
-    <t>LIPF</t>
-  </si>
-  <si>
-    <t>LIPI</t>
-  </si>
-  <si>
-    <t>LIPK</t>
-  </si>
-  <si>
-    <t>LIPL</t>
-  </si>
-  <si>
-    <t>LIPM</t>
-  </si>
-  <si>
-    <t>LIPN</t>
-  </si>
-  <si>
-    <t>LIPS</t>
-  </si>
-  <si>
-    <t>LIPT</t>
-  </si>
-  <si>
-    <t>LIPU</t>
-  </si>
-  <si>
-    <t>LIPV</t>
-  </si>
-  <si>
-    <t>LIQB</t>
-  </si>
-  <si>
-    <t>LIQL</t>
-  </si>
-  <si>
-    <t>LIQN</t>
-  </si>
-  <si>
-    <t>LIQS</t>
-  </si>
-  <si>
-    <t>LIQW</t>
-  </si>
-  <si>
-    <t>LIRC</t>
-  </si>
-  <si>
-    <t>LIRE</t>
-  </si>
-  <si>
-    <t>LIRG</t>
-  </si>
-  <si>
-    <t>LIRH</t>
-  </si>
-  <si>
-    <t>LIRL</t>
-  </si>
-  <si>
-    <t>LIRM</t>
-  </si>
-  <si>
-    <t>LIRO</t>
-  </si>
-  <si>
-    <t>LIRU</t>
-  </si>
-  <si>
-    <t>LIRV</t>
-  </si>
-  <si>
-    <t>LIVD</t>
   </si>
   <si>
     <t>Code</t>
@@ -1318,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,31 +692,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1365,10 +713,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2843,1080 +2189,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A1CDC-D955-4F97-B971-79A435B8C0BF}">
-  <dimension ref="A1:A211"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A115" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A244">
-    <sortCondition ref="A1:A244"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F73BFF5-9309-40D2-BDBD-3F8A698B726C}">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -3928,378 +2200,378 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>410</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>395</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>407</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>421</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>416</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>386</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>417</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>388</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/DataAir.xlsx
+++ b/DataAir.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhale\MATLAB Drive\MGTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhale\MATLAB Drive\MGTACasiDefinitivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764B2083-CB5B-4B88-8AD4-489C30AF9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6AB20-8AEA-45AB-B01E-F90FACBD8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="1395" windowWidth="28800" windowHeight="9735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
     <sheet name="Airlines" sheetId="2" r:id="rId2"/>
-    <sheet name="ECAC_List" sheetId="4" r:id="rId3"/>
+    <sheet name="AirportsECAC" sheetId="3" r:id="rId3"/>
+    <sheet name="Italy" sheetId="6" r:id="rId4"/>
+    <sheet name="ECAC_List" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="499">
   <si>
     <t>aircraft</t>
   </si>
@@ -410,6 +412,639 @@
     <t>WZZ</t>
   </si>
   <si>
+    <t>departure_airport</t>
+  </si>
+  <si>
+    <t>EBBR</t>
+  </si>
+  <si>
+    <t>EDDF</t>
+  </si>
+  <si>
+    <t>EDDH</t>
+  </si>
+  <si>
+    <t>EDDK</t>
+  </si>
+  <si>
+    <t>EDDL</t>
+  </si>
+  <si>
+    <t>EDDM</t>
+  </si>
+  <si>
+    <t>EDDS</t>
+  </si>
+  <si>
+    <t>EDDT</t>
+  </si>
+  <si>
+    <t>EFHK</t>
+  </si>
+  <si>
+    <t>EGBB</t>
+  </si>
+  <si>
+    <t>EGCC</t>
+  </si>
+  <si>
+    <t>EGGD</t>
+  </si>
+  <si>
+    <t>EGGW</t>
+  </si>
+  <si>
+    <t>EGKK</t>
+  </si>
+  <si>
+    <t>EGLC</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>EHAM</t>
+  </si>
+  <si>
+    <t>EIDW</t>
+  </si>
+  <si>
+    <t>EKCH</t>
+  </si>
+  <si>
+    <t>ELLX</t>
+  </si>
+  <si>
+    <t>EPKT</t>
+  </si>
+  <si>
+    <t>EPWA</t>
+  </si>
+  <si>
+    <t>EVRA</t>
+  </si>
+  <si>
+    <t>EYVI</t>
+  </si>
+  <si>
+    <t>LATI</t>
+  </si>
+  <si>
+    <t>LBSF</t>
+  </si>
+  <si>
+    <t>LDSP</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
+    <t>LEBL</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
+    <t>LEMG</t>
+  </si>
+  <si>
+    <t>LEVC</t>
+  </si>
+  <si>
+    <t>LEZL</t>
+  </si>
+  <si>
+    <t>LFBD</t>
+  </si>
+  <si>
+    <t>LFBO</t>
+  </si>
+  <si>
+    <t>LFLL</t>
+  </si>
+  <si>
+    <t>LFML</t>
+  </si>
+  <si>
+    <t>LFMN</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
+    <t>LFPO</t>
+  </si>
+  <si>
+    <t>LFRS</t>
+  </si>
+  <si>
+    <t>LFSB</t>
+  </si>
+  <si>
+    <t>LGAV</t>
+  </si>
+  <si>
+    <t>LHBP</t>
+  </si>
+  <si>
+    <t>LIBD</t>
+  </si>
+  <si>
+    <t>LIBP</t>
+  </si>
+  <si>
+    <t>LIBR</t>
+  </si>
+  <si>
+    <t>LICA</t>
+  </si>
+  <si>
+    <t>LICB</t>
+  </si>
+  <si>
+    <t>LICC</t>
+  </si>
+  <si>
+    <t>LICJ</t>
+  </si>
+  <si>
+    <t>LICR</t>
+  </si>
+  <si>
+    <t>LIEA</t>
+  </si>
+  <si>
+    <t>LIEE</t>
+  </si>
+  <si>
+    <t>LIEO</t>
+  </si>
+  <si>
+    <t>LIMC</t>
+  </si>
+  <si>
+    <t>LIMF</t>
+  </si>
+  <si>
+    <t>LIMJ</t>
+  </si>
+  <si>
+    <t>LIML</t>
+  </si>
+  <si>
+    <t>LIPE</t>
+  </si>
+  <si>
+    <t>LIPO</t>
+  </si>
+  <si>
+    <t>LIPQ</t>
+  </si>
+  <si>
+    <t>LIPX</t>
+  </si>
+  <si>
+    <t>LIPY</t>
+  </si>
+  <si>
+    <t>LIPZ</t>
+  </si>
+  <si>
+    <t>LIRN</t>
+  </si>
+  <si>
+    <t>LIRP</t>
+  </si>
+  <si>
+    <t>LIRQ</t>
+  </si>
+  <si>
+    <t>LIRZ</t>
+  </si>
+  <si>
+    <t>LKPR</t>
+  </si>
+  <si>
+    <t>LLBG</t>
+  </si>
+  <si>
+    <t>LMML</t>
+  </si>
+  <si>
+    <t>LOWW</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>LRBC</t>
+  </si>
+  <si>
+    <t>LRIA</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>LSGG</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>LTBA</t>
+  </si>
+  <si>
+    <t>LTFJ</t>
+  </si>
+  <si>
+    <t>LWSK</t>
+  </si>
+  <si>
+    <t>LYBE</t>
+  </si>
+  <si>
+    <t>LYPG</t>
+  </si>
+  <si>
+    <t>UKBB</t>
+  </si>
+  <si>
+    <t>LEAB</t>
+  </si>
+  <si>
+    <t>GCFV</t>
+  </si>
+  <si>
+    <t>GCGM</t>
+  </si>
+  <si>
+    <t>GCHI</t>
+  </si>
+  <si>
+    <t>GCLA</t>
+  </si>
+  <si>
+    <t>GCLP</t>
+  </si>
+  <si>
+    <t>GCRR</t>
+  </si>
+  <si>
+    <t>GCTS</t>
+  </si>
+  <si>
+    <t>GCXO</t>
+  </si>
+  <si>
+    <t>GEML</t>
+  </si>
+  <si>
+    <t>LEAM</t>
+  </si>
+  <si>
+    <t>LEAS</t>
+  </si>
+  <si>
+    <t>LEBA</t>
+  </si>
+  <si>
+    <t>LEBB</t>
+  </si>
+  <si>
+    <t>LEBG</t>
+  </si>
+  <si>
+    <t>LEBZ</t>
+  </si>
+  <si>
+    <t>LECO</t>
+  </si>
+  <si>
+    <t>LECU</t>
+  </si>
+  <si>
+    <t>LEGE</t>
+  </si>
+  <si>
+    <t>LEGR</t>
+  </si>
+  <si>
+    <t>LEHC</t>
+  </si>
+  <si>
+    <t>LEIB</t>
+  </si>
+  <si>
+    <t>LEJR</t>
+  </si>
+  <si>
+    <t>LELL</t>
+  </si>
+  <si>
+    <t>LELN</t>
+  </si>
+  <si>
+    <t>LEMH</t>
+  </si>
+  <si>
+    <t>LEMI</t>
+  </si>
+  <si>
+    <t>LEPA</t>
+  </si>
+  <si>
+    <t>LEPP</t>
+  </si>
+  <si>
+    <t>LERJ</t>
+  </si>
+  <si>
+    <t>LERS</t>
+  </si>
+  <si>
+    <t>LESA</t>
+  </si>
+  <si>
+    <t>LESB</t>
+  </si>
+  <si>
+    <t>LESO</t>
+  </si>
+  <si>
+    <t>LEST</t>
+  </si>
+  <si>
+    <t>LEVD</t>
+  </si>
+  <si>
+    <t>LEVT</t>
+  </si>
+  <si>
+    <t>LEVX</t>
+  </si>
+  <si>
+    <t>LEXJ</t>
+  </si>
+  <si>
+    <t>LEZG</t>
+  </si>
+  <si>
+    <t>LESU</t>
+  </si>
+  <si>
+    <t>LECH</t>
+  </si>
+  <si>
+    <t>LERL</t>
+  </si>
+  <si>
+    <t>LEDA</t>
+  </si>
+  <si>
+    <t>LETL</t>
+  </si>
+  <si>
+    <t>LIMG</t>
+  </si>
+  <si>
+    <t>LIME</t>
+  </si>
+  <si>
+    <t>LIPB</t>
+  </si>
+  <si>
+    <t>LIBC</t>
+  </si>
+  <si>
+    <t>LIMZ</t>
+  </si>
+  <si>
+    <t>LIBF</t>
+  </si>
+  <si>
+    <t>LIRS</t>
+  </si>
+  <si>
+    <t>LICD</t>
+  </si>
+  <si>
+    <t>LIRJ</t>
+  </si>
+  <si>
+    <t>LICG</t>
+  </si>
+  <si>
+    <t>LIMP</t>
+  </si>
+  <si>
+    <t>LIPR</t>
+  </si>
+  <si>
+    <t>LIRA</t>
+  </si>
+  <si>
+    <t>LIRF</t>
+  </si>
+  <si>
+    <t>LIRI</t>
+  </si>
+  <si>
+    <t>LIPH</t>
+  </si>
+  <si>
+    <t>LIBG</t>
+  </si>
+  <si>
+    <t>LICT</t>
+  </si>
+  <si>
+    <t>LIAF</t>
+  </si>
+  <si>
+    <t>LIAP</t>
+  </si>
+  <si>
+    <t>LIAT</t>
+  </si>
+  <si>
+    <t>LIAU</t>
+  </si>
+  <si>
+    <t>LIBA</t>
+  </si>
+  <si>
+    <t>LIBN</t>
+  </si>
+  <si>
+    <t>LIBV</t>
+  </si>
+  <si>
+    <t>LIBX</t>
+  </si>
+  <si>
+    <t>LICP</t>
+  </si>
+  <si>
+    <t>LICZ</t>
+  </si>
+  <si>
+    <t>LIDA</t>
+  </si>
+  <si>
+    <t>LIDB</t>
+  </si>
+  <si>
+    <t>LIDE</t>
+  </si>
+  <si>
+    <t>LIDF</t>
+  </si>
+  <si>
+    <t>LIDG</t>
+  </si>
+  <si>
+    <t>LIDH</t>
+  </si>
+  <si>
+    <t>LIDP</t>
+  </si>
+  <si>
+    <t>LIDR</t>
+  </si>
+  <si>
+    <t>LIDT</t>
+  </si>
+  <si>
+    <t>LIDU</t>
+  </si>
+  <si>
+    <t>LIDV</t>
+  </si>
+  <si>
+    <t>LIED</t>
+  </si>
+  <si>
+    <t>LIER</t>
+  </si>
+  <si>
+    <t>LIET</t>
+  </si>
+  <si>
+    <t>LILE</t>
+  </si>
+  <si>
+    <t>LILG</t>
+  </si>
+  <si>
+    <t>LILH</t>
+  </si>
+  <si>
+    <t>LILN</t>
+  </si>
+  <si>
+    <t>LILR</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>LIMB</t>
+  </si>
+  <si>
+    <t>LIMN</t>
+  </si>
+  <si>
+    <t>LIMS</t>
+  </si>
+  <si>
+    <t>LIMW</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>LIPC</t>
+  </si>
+  <si>
+    <t>LIPD</t>
+  </si>
+  <si>
+    <t>LIPF</t>
+  </si>
+  <si>
+    <t>LIPI</t>
+  </si>
+  <si>
+    <t>LIPK</t>
+  </si>
+  <si>
+    <t>LIPL</t>
+  </si>
+  <si>
+    <t>LIPM</t>
+  </si>
+  <si>
+    <t>LIPN</t>
+  </si>
+  <si>
+    <t>LIPS</t>
+  </si>
+  <si>
+    <t>LIPT</t>
+  </si>
+  <si>
+    <t>LIPU</t>
+  </si>
+  <si>
+    <t>LIPV</t>
+  </si>
+  <si>
+    <t>LIQB</t>
+  </si>
+  <si>
+    <t>LIQL</t>
+  </si>
+  <si>
+    <t>LIQN</t>
+  </si>
+  <si>
+    <t>LIQS</t>
+  </si>
+  <si>
+    <t>LIQW</t>
+  </si>
+  <si>
+    <t>LIRC</t>
+  </si>
+  <si>
+    <t>LIRE</t>
+  </si>
+  <si>
+    <t>LIRG</t>
+  </si>
+  <si>
+    <t>LIRH</t>
+  </si>
+  <si>
+    <t>LIRL</t>
+  </si>
+  <si>
+    <t>LIRM</t>
+  </si>
+  <si>
+    <t>LIRO</t>
+  </si>
+  <si>
+    <t>LIRU</t>
+  </si>
+  <si>
+    <t>LIRV</t>
+  </si>
+  <si>
+    <t>LIVD</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -678,13 +1313,283 @@
   </si>
   <si>
     <t>UD</t>
+  </si>
+  <si>
+    <t>chourly</t>
+  </si>
+  <si>
+    <t>APUhconsumption</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <r>
+      <t>Brindisi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> / Salento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lamezia Terme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Catanzaro</t>
+    </r>
+  </si>
+  <si>
+    <t>Comiso</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Reggio Calabria</t>
+  </si>
+  <si>
+    <t>Alghero</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Olbia</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Turin (Torino)</t>
+  </si>
+  <si>
+    <r>
+      <t>Genoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Genova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) / Sestri Ponente</t>
+    </r>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <r>
+      <t>Ronchi dei Legionari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> / Trieste</t>
+    </r>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Venice (Venezia)</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Florence (Firenze)</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>94.5</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>120.6</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>115.2</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>128.8</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>120.4</t>
+  </si>
+  <si>
+    <t>105.8</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>123.4</t>
+  </si>
+  <si>
+    <t>116.3</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>117.3</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>100.5</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>149.3</t>
+  </si>
+  <si>
+    <t>113.1</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>105.6</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>115.5</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>103.7</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>127.7</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>CO2T</t>
+  </si>
+  <si>
+    <t>CO2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,13 +1597,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -713,8 +1647,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,15 +1936,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1954,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1974,17 @@
       <c r="C2">
         <v>829</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2710</v>
+      </c>
+      <c r="E2">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1994,17 @@
       <c r="C3">
         <v>829</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2710</v>
+      </c>
+      <c r="E3">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1046,8 +2014,17 @@
       <c r="C4">
         <v>829</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2710</v>
+      </c>
+      <c r="E4">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +2034,17 @@
       <c r="C5">
         <v>829</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2710</v>
+      </c>
+      <c r="E5">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1068,8 +2054,17 @@
       <c r="C6">
         <v>871</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5146</v>
+      </c>
+      <c r="E6">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1079,8 +2074,17 @@
       <c r="C7">
         <v>871</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5146</v>
+      </c>
+      <c r="E7">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1090,8 +2094,17 @@
       <c r="C8">
         <v>903</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>11017</v>
+      </c>
+      <c r="E8">
+        <v>470</v>
+      </c>
+      <c r="F8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +2114,17 @@
       <c r="C9">
         <v>515</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2010</v>
+      </c>
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +2134,17 @@
       <c r="C10">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2010</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1123,8 +2154,17 @@
       <c r="C11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2010</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1134,8 +2174,17 @@
       <c r="C12">
         <v>838</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +2194,17 @@
       <c r="C13">
         <v>838</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1156,8 +2214,17 @@
       <c r="C14">
         <v>838</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1167,8 +2234,17 @@
       <c r="C15">
         <v>838</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1178,8 +2254,17 @@
       <c r="C16">
         <v>796</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2705</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1189,8 +2274,17 @@
       <c r="C17">
         <v>796</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2705</v>
+      </c>
+      <c r="E17">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +2294,17 @@
       <c r="C18">
         <v>796</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2705</v>
+      </c>
+      <c r="E18">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1211,8 +2314,17 @@
       <c r="C19">
         <v>796</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2705</v>
+      </c>
+      <c r="E19">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1222,8 +2334,17 @@
       <c r="C20">
         <v>796</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2705</v>
+      </c>
+      <c r="E20">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1233,8 +2354,17 @@
       <c r="C21">
         <v>838</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2428</v>
+      </c>
+      <c r="E21">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1244,8 +2374,17 @@
       <c r="C22">
         <v>838</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2428</v>
+      </c>
+      <c r="E22">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1255,8 +2394,17 @@
       <c r="C23">
         <v>838</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2428</v>
+      </c>
+      <c r="E23">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1266,8 +2414,17 @@
       <c r="C24">
         <v>838</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2428</v>
+      </c>
+      <c r="E24">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1277,8 +2434,17 @@
       <c r="C25">
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>4680</v>
+      </c>
+      <c r="E25">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1288,8 +2454,17 @@
       <c r="C26">
         <v>850</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>4680</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1299,8 +2474,17 @@
       <c r="C27">
         <v>850</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4680</v>
+      </c>
+      <c r="E27">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1310,8 +2494,17 @@
       <c r="C28">
         <v>892</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>6562</v>
+      </c>
+      <c r="E28">
+        <v>312</v>
+      </c>
+      <c r="F28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1321,8 +2514,17 @@
       <c r="C29">
         <v>892</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>6562</v>
+      </c>
+      <c r="E29">
+        <v>312</v>
+      </c>
+      <c r="F29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1332,8 +2534,17 @@
       <c r="C30">
         <v>892</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>6562</v>
+      </c>
+      <c r="E30">
+        <v>312</v>
+      </c>
+      <c r="F30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1343,8 +2554,17 @@
       <c r="C31">
         <v>892</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>6562</v>
+      </c>
+      <c r="E31">
+        <v>312</v>
+      </c>
+      <c r="F31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1354,8 +2574,17 @@
       <c r="C32">
         <v>903</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>9557</v>
+      </c>
+      <c r="E32">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1365,8 +2594,17 @@
       <c r="C33">
         <v>903</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>9557</v>
+      </c>
+      <c r="E33">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1376,8 +2614,17 @@
       <c r="C34">
         <v>903</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>9557</v>
+      </c>
+      <c r="E34">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1387,8 +2634,17 @@
       <c r="C35">
         <v>786</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2010</v>
+      </c>
+      <c r="E35">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1398,8 +2654,17 @@
       <c r="C36">
         <v>786</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2010</v>
+      </c>
+      <c r="E36">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1409,8 +2674,17 @@
       <c r="C37">
         <v>829</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2010</v>
+      </c>
+      <c r="E37">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1420,8 +2694,17 @@
       <c r="C38">
         <v>829</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2010</v>
+      </c>
+      <c r="E38">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1431,8 +2714,17 @@
       <c r="C39">
         <v>829</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2010</v>
+      </c>
+      <c r="E39">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1442,8 +2734,17 @@
       <c r="C40">
         <v>500</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>3030</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1453,8 +2754,17 @@
       <c r="C41">
         <v>535</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>3030</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1464,8 +2774,17 @@
       <c r="C42">
         <v>532</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3030</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1475,8 +2794,17 @@
       <c r="C43">
         <v>556</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2129</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1486,8 +2814,17 @@
       <c r="C44">
         <v>833</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1237</v>
+      </c>
+      <c r="E44">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1497,8 +2834,17 @@
       <c r="C45">
         <v>854</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1237</v>
+      </c>
+      <c r="E45">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1508,8 +2854,17 @@
       <c r="C46">
         <v>797</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1285</v>
+      </c>
+      <c r="E46">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1519,8 +2874,17 @@
       <c r="C47">
         <v>797</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1285</v>
+      </c>
+      <c r="E47">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1530,8 +2894,17 @@
       <c r="C48">
         <v>829</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1392</v>
+      </c>
+      <c r="E48">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1541,8 +2914,17 @@
       <c r="C49">
         <v>829</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1392</v>
+      </c>
+      <c r="E49">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1552,8 +2934,17 @@
       <c r="C50">
         <v>830</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2285</v>
+      </c>
+      <c r="E50">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1563,8 +2954,17 @@
       <c r="C51">
         <v>830</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2285</v>
+      </c>
+      <c r="E51">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1574,8 +2974,17 @@
       <c r="C52">
         <v>830</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2285</v>
+      </c>
+      <c r="E52">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1585,8 +2994,17 @@
       <c r="C53">
         <v>830</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1820</v>
+      </c>
+      <c r="E53">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1596,8 +3014,17 @@
       <c r="C54">
         <v>830</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1820</v>
+      </c>
+      <c r="E54">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1606,6 +3033,15 @@
       </c>
       <c r="C55">
         <v>665</v>
+      </c>
+      <c r="D55">
+        <v>3030</v>
+      </c>
+      <c r="E55">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0D26A-863C-4B86-BBA9-06EDB932DD35}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -2189,389 +3625,2001 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A1CDC-D955-4F97-B971-79A435B8C0BF}">
+  <dimension ref="A1:A211"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A244">
+    <sortCondition ref="A1:A244"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE968D6A-C651-A24A-82B1-8A454ED1F31B}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2">
+        <v>291</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3">
+        <v>257</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4">
+        <v>351</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5">
+        <v>279</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1077</v>
+      </c>
+      <c r="D6" s="5">
+        <v>95</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="5">
+        <v>556</v>
+      </c>
+      <c r="D7" s="5">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="5">
+        <v>669</v>
+      </c>
+      <c r="D8" s="5">
+        <v>87</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10000000000000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10000000000000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000000000000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10000000000000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13">
+        <v>223</v>
+      </c>
+      <c r="D13">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14">
+        <v>290</v>
+      </c>
+      <c r="D14">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15">
+        <v>292</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16">
+        <v>223</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17">
+        <v>185</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F17" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18">
+        <v>219</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19">
+        <v>372</v>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20">
+        <v>249</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21">
+        <v>266</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22">
+        <v>281</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24">
+        <v>188</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F26" s="4">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F73BFF5-9309-40D2-BDBD-3F8A698B726C}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A11:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
